--- a/output.xlsx
+++ b/output.xlsx
@@ -7,12 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BOARD" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="COMM_FILE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="COMM_MDI_FILE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MEMBER" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZIPCODE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ANSWER" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Board" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Community" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Notice" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="OrderStockHistory" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stock" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="StockHistory" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Stock_Price" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Transaction" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Transfer_history" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="UserStock" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Users" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="file" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="notice1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="stock_index" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="user" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +439,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +486,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BOARD_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CONTENT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>VIEW_COUNT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>REG_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DEL_FL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>REG_DT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_DT</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BOARD_TYPE_CD</t>
+          <t>USER_PW</t>
         </is>
       </c>
     </row>
@@ -495,73 +495,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_NM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_PATH</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ORG_FILE_NM</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_SIZE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_TYPE_CD</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>REG_DT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>REG_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_DT</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_ACCT_ID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -572,62 +591,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MDI_FILE_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FILE_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MDI_TYPE_CD</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MDI_ORDER</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>REG_DT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>REG_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_DT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>BOARD_ID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -638,122 +609,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ACCT_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LOGIN_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>USER_NM</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>USER_TERMS_YN</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIVACY_YN</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ZIPCODE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ADDRESS1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ADDRESS2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REG_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>REG_DT</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_DT</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MAIL_CERTI_KEY</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CERTI_YN</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ADMIN_YN</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>PWDQ</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>PWDANS</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>PWDCNT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>FSTPWD</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -764,42 +627,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ZIPCODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SIDO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GUGUN</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DONG</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BUNJI</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -810,69 +645,68 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ANSWER</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>REG_DT</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>REG_ACCT_ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_DT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>UDT_ACCT_ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ant6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>03-JUL-19</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>U180623-00001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>03-JUL-19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>U180623-00001</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>